--- a/test/assets/expected/e-daten1.xlsx
+++ b/test/assets/expected/e-daten1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,30 +83,43 @@
     <t xml:space="preserve">Bär</t>
   </si>
   <si>
+    <t xml:space="preserve">Maus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">FALSCH</t>
   </si>
   <si>
-    <t xml:space="preserve">Maus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katze</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hund</t>
   </si>
   <si>
+    <t xml:space="preserve">nein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000\ [$€-407];[RED]\-#,##0.0000\ [$€-407]"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -173,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,6 +208,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,7 +354,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,8 +429,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -425,26 +441,26 @@
       <c r="I2" s="4" t="n">
         <v>1002.16</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1003.16</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1004.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1005.16</v>
+      <c r="J2" s="5" t="n">
+        <v>1003.162</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>1004.164</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>1005.166</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>1006.16</v>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="O2" s="5" t="n">
+      <c r="N2" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>400</v>
+      <c r="P2" s="6" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,12 +480,11 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="F3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>1002.16</v>
@@ -477,26 +492,26 @@
       <c r="I3" s="4" t="n">
         <v>1003.16</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1004.16</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1005.16</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1006.16</v>
+      <c r="J3" s="5" t="n">
+        <v>1004.162</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>1005.164</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>1006.166</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>1007.16</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="O3" s="5" t="n">
+      <c r="N3" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="O3" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>400</v>
+      <c r="P3" s="6" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,15 +525,14 @@
         <v>46022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -529,26 +543,26 @@
       <c r="I4" s="4" t="n">
         <v>1002.16</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1003.16</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1004.16</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1005.16</v>
+      <c r="J4" s="5" t="n">
+        <v>1003.162</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1004.164</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>1005.166</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>1006.16</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="O4" s="5" t="n">
+      <c r="N4" s="6" t="n">
+        <v>230</v>
+      </c>
+      <c r="O4" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>400</v>
+      <c r="P4" s="6" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,12 +582,11 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>1002.16</v>
@@ -581,26 +594,26 @@
       <c r="I5" s="4" t="n">
         <v>1003.16</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1004.16</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1005.16</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1006.16</v>
+      <c r="J5" s="5" t="n">
+        <v>1004.162</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>1005.164</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>1006.166</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>1007.16</v>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="O5" s="5" t="n">
+      <c r="N5" s="6" t="n">
+        <v>240</v>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>400</v>
+      <c r="P5" s="6" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,18 +627,17 @@
         <v>46022</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>1002.16</v>
@@ -633,26 +645,26 @@
       <c r="I6" s="4" t="n">
         <v>1003.16</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1004.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1005.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1006.16</v>
+      <c r="J6" s="5" t="n">
+        <v>1004.162</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1005.164</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1006.166</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>1007.16</v>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="O6" s="5" t="n">
+      <c r="N6" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="O6" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>400</v>
+      <c r="P6" s="6" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,18 +678,17 @@
         <v>46022</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>1001.16</v>
@@ -685,26 +696,26 @@
       <c r="I7" s="4" t="n">
         <v>1002.16</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1003.16</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1004.16</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1005.16</v>
+      <c r="J7" s="5" t="n">
+        <v>1003.162</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>1004.164</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>1005.166</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>1006.16</v>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="O7" s="5" t="n">
+      <c r="N7" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="O7" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="P7" s="5" t="n">
-        <v>400</v>
+      <c r="P7" s="6" t="n">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/test/assets/expected/e-daten1.xlsx
+++ b/test/assets/expected/e-daten1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -77,19 +77,22 @@
     <t xml:space="preserve">Fuchs</t>
   </si>
   <si>
+    <t xml:space="preserve">WAHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bär</t>
+  </si>
+  <si>
     <t xml:space="preserve">WAHL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bär</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maus</t>
+    <t xml:space="preserve">versteckt</t>
   </si>
   <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Katze</t>
+    <t xml:space="preserve">schläft</t>
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
@@ -98,7 +101,7 @@
     <t xml:space="preserve">FALSCH</t>
   </si>
   <si>
-    <t xml:space="preserve">Hund</t>
+    <t xml:space="preserve">spielt</t>
   </si>
   <si>
     <t xml:space="preserve">nein</t>
@@ -354,7 +357,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>1002.16</v>
@@ -525,17 +528,17 @@
         <v>46022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>1001.16</v>
@@ -576,17 +579,17 @@
         <v>46022</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>1002.16</v>
@@ -627,17 +630,17 @@
         <v>46022</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>1002.16</v>
@@ -678,17 +681,17 @@
         <v>46022</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>1001.16</v>
